--- a/Assets/JoyconFrameWork/2_SoundManager/Table/SoundTable.xlsx
+++ b/Assets/JoyconFrameWork/2_SoundManager/Table/SoundTable.xlsx
@@ -19,24 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sound/BGM/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sound/SE1/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sound/SE2/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bg1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,6 +74,22 @@
   </si>
   <si>
     <t>Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/bgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/se1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/se1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/se2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,7 +478,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -486,16 +490,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -503,13 +507,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -517,13 +521,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -531,13 +535,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -545,13 +549,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -559,13 +563,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
